--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -73,31 +73,40 @@
     <t>panic</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -115,66 +124,69 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>good</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
@@ -184,52 +196,46 @@
     <t>like</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>check</t>
   </si>
   <si>
     <t>corona</t>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -677,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.9166666666666666</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -759,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8013698630136986</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -880,16 +886,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8787878787878788</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8302872062663186</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L9">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="M9">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6333333333333333</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1030,16 +1036,16 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,16 +1086,16 @@
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5490196078431373</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5465116279069767</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C13">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D13">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5396825396825397</v>
+        <v>0.525</v>
       </c>
       <c r="C14">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8048780487804879</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4697986577181208</v>
+        <v>0.5132275132275133</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4133333333333333</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7734375</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>78</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <v>0.7674418604651163</v>
+      </c>
+      <c r="L17">
         <v>33</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17">
-        <v>0.76875</v>
-      </c>
-      <c r="L17">
-        <v>123</v>
-      </c>
       <c r="M17">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3818181818181818</v>
+        <v>0.44</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7586206896551724</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.375</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,13 +1515,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3116883116883117</v>
+        <v>0.4</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1527,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K20">
-        <v>0.7441860465116279</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1559,13 +1565,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2777777777777778</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1577,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1601,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,13 +1615,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2698412698412698</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1627,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1651,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1665,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1662198391420912</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C23">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1677,19 +1683,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.6875</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,13 +1715,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.08333333333333333</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1727,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6571428571428571</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,37 +1765,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0145114479200258</v>
+        <v>0.2375</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E25">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3056</v>
+        <v>61</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6411764705882353</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L25">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1801,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1809,115 +1815,187 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01405152224824356</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C26">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>314</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26">
+        <v>0.638235294117647</v>
+      </c>
+      <c r="L26">
+        <v>217</v>
+      </c>
+      <c r="M26">
+        <v>217</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.07666666666666666</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>277</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
         <v>30</v>
       </c>
-      <c r="D26">
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.01612903225806452</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>57</v>
+      </c>
+      <c r="E28">
+        <v>0.12</v>
+      </c>
+      <c r="F28">
+        <v>0.88</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3050</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L28">
+        <v>56</v>
+      </c>
+      <c r="M28">
+        <v>56</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>38</v>
       </c>
-      <c r="E26">
-        <v>0.21</v>
-      </c>
-      <c r="F26">
-        <v>0.79</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2105</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L26">
-        <v>21</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.625</v>
-      </c>
-      <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="L28">
-        <v>43</v>
-      </c>
-      <c r="M28">
-        <v>43</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>27</v>
-      </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01216658867571362</v>
+      </c>
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <v>0.19</v>
+      </c>
+      <c r="F29">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2111</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1929,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1955,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5899581589958159</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L31">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1981,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5864406779661017</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2007,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5851063829787234</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L33">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M33">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2033,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.5490196078431373</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2059,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.5393258426966292</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L35">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2085,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.4888888888888889</v>
+        <v>0.40625</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2111,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.4523809523809524</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2137,21 +2215,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.3561643835616438</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2163,21 +2241,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>0.328125</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2189,21 +2267,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.2948717948717949</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2215,59 +2293,33 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.1851851851851852</v>
+        <v>0.00942507068803016</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>0.62</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42">
-        <v>0.009093759799310128</v>
-      </c>
-      <c r="L42">
-        <v>29</v>
-      </c>
-      <c r="M42">
-        <v>41</v>
-      </c>
-      <c r="N42">
-        <v>0.71</v>
-      </c>
-      <c r="O42">
-        <v>0.29</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>3160</v>
+        <v>3153</v>
       </c>
     </row>
   </sheetData>
